--- a/df_2/df_2_10.xlsx
+++ b/df_2/df_2_10.xlsx
@@ -638,342 +638,342 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.2632 %</t>
+          <t>5,2632</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5982 %</t>
+          <t>0,5982</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.7653 %</t>
+          <t>0,7653</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.7085 %</t>
+          <t>2,7085</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.9326 %</t>
+          <t>2,9326</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6425 %</t>
+          <t>3,6425</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.6942 %</t>
+          <t>2,6942</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.9884 %</t>
+          <t>2,9884</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.6443 %</t>
+          <t>2,6443</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.5907 %</t>
+          <t>2,5907</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.9973 %</t>
+          <t>1,9973</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.327 %</t>
+          <t>2,327</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2.5408 %</t>
+          <t>2,5408</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.0814 %</t>
+          <t>2,0814</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.0147 %</t>
+          <t>2,0147</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.9937 %</t>
+          <t>1,9937</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.3142 %</t>
+          <t>2,3142</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.0057 %</t>
+          <t>2,0057</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2.278 %</t>
+          <t>2,278</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2.4154 %</t>
+          <t>2,4154</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.2084 %</t>
+          <t>2,2084</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2.1118 %</t>
+          <t>2,1118</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2.026 %</t>
+          <t>2,026</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2.1486 %</t>
+          <t>2,1486</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2.0744 %</t>
+          <t>2,0744</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2.5068 %</t>
+          <t>2,5068</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2.7631 %</t>
+          <t>2,7631</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2.3141 %</t>
+          <t>2,3141</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2.1359 %</t>
+          <t>2,1359</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2.2337 %</t>
+          <t>2,2337</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2.2699 %</t>
+          <t>2,2699</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2.4393 %</t>
+          <t>2,4393</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>3.1125 %</t>
+          <t>3,1125</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.7635 %</t>
+          <t>2,7635</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.7562 %</t>
+          <t>2,7562</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>2.4302 %</t>
+          <t>2,4302</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>2.2368 %</t>
+          <t>2,2368</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>2.583 %</t>
+          <t>2,583</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>2.3949 %</t>
+          <t>2,3949</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2.3103 %</t>
+          <t>2,3103</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>3.4181 %</t>
+          <t>3,4181</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>3.4893 %</t>
+          <t>3,4893</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>3.5911 %</t>
+          <t>3,5911</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>3.5288 %</t>
+          <t>3,5288</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>3.3667 %</t>
+          <t>3,3667</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>2.6679 %</t>
+          <t>2,6679</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>2.5827 %</t>
+          <t>2,5827</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>3.0201 %</t>
+          <t>3,0201</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>3.819 %</t>
+          <t>3,819</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>2.7124 %</t>
+          <t>2,7124</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>2.4046 %</t>
+          <t>2,4046</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>2.6893 %</t>
+          <t>2,6893</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>2.5095 %</t>
+          <t>2,5095</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>2.5036 %</t>
+          <t>2,5036</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>2.6042 %</t>
+          <t>2,6042</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>2.5276 %</t>
+          <t>2,5276</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2.2336 %</t>
+          <t>2,2336</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>2.7168 %</t>
+          <t>2,7168</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2.6084 %</t>
+          <t>2,6084</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>2.862 %</t>
+          <t>2,862</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>2.5059 %</t>
+          <t>2,5059</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>2.258 %</t>
+          <t>2,258</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>2.6069 %</t>
+          <t>2,6069</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>2.464 %</t>
+          <t>2,464</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>2.2779 %</t>
+          <t>2,2779</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>2.0452 %</t>
+          <t>2,0452</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.8466 %</t>
+          <t>0,8466</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>1.2331 %</t>
+          <t>1,2331</t>
         </is>
       </c>
     </row>
@@ -985,242 +985,242 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.1528 %</t>
+          <t>4,1528</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7779 %</t>
+          <t>0,7779</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.3157 %</t>
+          <t>0,3157</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4444 %</t>
+          <t>0,4444</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4834 %</t>
+          <t>0,4834</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6021 %</t>
+          <t>0,6021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.7286 %</t>
+          <t>0,7286</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.7349 %</t>
+          <t>0,7349</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.3054 %</t>
+          <t>1,3054</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.0726 %</t>
+          <t>1,0726</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.3414 %</t>
+          <t>1,3414</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.5716 %</t>
+          <t>1,5716</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3.5368 %</t>
+          <t>3,5368</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.9451 %</t>
+          <t>1,9451</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.6399 %</t>
+          <t>1,6399</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2.1183 %</t>
+          <t>2,1183</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>4.361 %</t>
+          <t>4,361</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.8964 %</t>
+          <t>2,8964</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2.3194 %</t>
+          <t>2,3194</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.521 %</t>
+          <t>2,521</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>4.0011 %</t>
+          <t>4,0011</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2.9735 %</t>
+          <t>2,9735</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>3.1426 %</t>
+          <t>3,1426</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>3.2571 %</t>
+          <t>3,2571</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>3.6261 %</t>
+          <t>3,6261</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>3.6753 %</t>
+          <t>3,6753</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3.7064 %</t>
+          <t>3,7064</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>4.0624 %</t>
+          <t>4,0624</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>5.0907 %</t>
+          <t>5,0907</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>4.1177 %</t>
+          <t>4,1177</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>3.5183 %</t>
+          <t>3,5183</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>3.0627 %</t>
+          <t>3,0627</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>3.839 %</t>
+          <t>3,839</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.7031 %</t>
+          <t>2,7031</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.3339 %</t>
+          <t>2,3339</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2.6377 %</t>
+          <t>2,6377</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2.7508 %</t>
+          <t>2,7508</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2.5245 %</t>
+          <t>2,5245</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2.5082 %</t>
+          <t>2,5082</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1.7408 %</t>
+          <t>1,7408</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1.8427 %</t>
+          <t>1,8427</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1.2326 %</t>
+          <t>1,2326</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.7466 %</t>
+          <t>0,7466</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.4676 %</t>
+          <t>0,4676</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.6736 %</t>
+          <t>0,6736</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.3909 %</t>
+          <t>0,3909</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.5137 %</t>
+          <t>0,5137</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1.5766 %</t>
+          <t>1,5766</t>
         </is>
       </c>
     </row>
@@ -1232,202 +1232,202 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.0293 %</t>
+          <t>5,0293</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.2707 %</t>
+          <t>7,2707</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.5765 %</t>
+          <t>8,5765</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.9792 %</t>
+          <t>9,9792</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.2479 %</t>
+          <t>11,2479</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15.1316 %</t>
+          <t>15,1316</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13.9099 %</t>
+          <t>13,9099</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11.2565 %</t>
+          <t>11,2565</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.0919 %</t>
+          <t>9,0919</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7.2984 %</t>
+          <t>7,2984</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.4929 %</t>
+          <t>5,4929</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4.2161 %</t>
+          <t>4,2161</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.6796 %</t>
+          <t>0,6796</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5778 %</t>
+          <t>0,5778</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.6607 %</t>
+          <t>0,6607</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.6158 %</t>
+          <t>0,6158</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.7106 %</t>
+          <t>0,7106</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.8814 %</t>
+          <t>0,8814</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.344 %</t>
+          <t>1,344</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.9818 %</t>
+          <t>1,9818</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.0431 %</t>
+          <t>2,0431</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1.6781 %</t>
+          <t>1,6781</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.9354 %</t>
+          <t>0,9354</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.5567 %</t>
+          <t>0,5567</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.4272 %</t>
+          <t>0,4272</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.4296 %</t>
+          <t>0,4296</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.4381 %</t>
+          <t>0,4381</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.4717 %</t>
+          <t>0,4717</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5335 %</t>
+          <t>0,5335</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.6463 %</t>
+          <t>0,6463</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.7931 %</t>
+          <t>0,7931</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.8369 %</t>
+          <t>0,8369</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.7218 %</t>
+          <t>0,7218</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.9332 %</t>
+          <t>0,9332</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.9713 %</t>
+          <t>0,9713</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1.8609 %</t>
+          <t>1,8609</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2.7365 %</t>
+          <t>2,7365</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>4.0802 %</t>
+          <t>4,0802</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>6.6059 %</t>
+          <t>6,6059</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>5.5922 %</t>
+          <t>5,5922</t>
         </is>
       </c>
     </row>
